--- a/biology/Zoologie/Ammomane_isabelline/Ammomane_isabelline.xlsx
+++ b/biology/Zoologie/Ammomane_isabelline/Ammomane_isabelline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ammomanes deserti
 L'Ammomane isabelline (Ammomanes deserti) est une espèce de passereaux appartenant à la famille des Alaudidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette alouette présente un plumage très clair, qui est à l'origine de son nom en français.
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,11 +585,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Ammomanes deserti a été décrite par l'ornithologue allemand Martin Heinrich Carl Lichtenstein en 1823.
-Sous-espèces
-D'après le Congrès ornithologique international, cette espèce est constituée des 24 sous-espèces suivantes (ordre alphabétique) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ammomanes deserti a été décrite par l'ornithologue allemand Martin Heinrich Carl Lichtenstein en 1823.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ammomane_isabelline</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ammomane_isabelline</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après le Congrès ornithologique international, cette espèce est constituée des 24 sous-espèces suivantes (ordre alphabétique) :
 Ammomanes deserti akeleyi Elliot 1897 ;
 Ammomanes deserti algeriensis Sharpe 1890 ;
 Ammomanes deserti annae Meinertzhagen 1923 ;
